--- a/P&E/Método Mínimos Cuadrados.xlsx
+++ b/P&E/Método Mínimos Cuadrados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DCAA12-F322-4E92-B6E9-A01128BC4DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA1FB1-9D66-497F-94EE-18B1E8F334D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Fórmula &gt;</t>
   </si>
@@ -111,9 +111,6 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <t>b &gt;</t>
   </si>
   <si>
     <t>1047 -(90 * 79) / 6</t>
@@ -148,9 +145,6 @@
     <t>=</t>
   </si>
   <si>
-    <t>Promedios</t>
-  </si>
-  <si>
     <t>ȳ</t>
   </si>
   <si>
@@ -163,12 +157,6 @@
     <t>*para obtener macrón &gt; ALT + 0304 (el + incluído &gt; unicode)</t>
   </si>
   <si>
-    <t>a &gt;</t>
-  </si>
-  <si>
-    <t>ŷ &gt;</t>
-  </si>
-  <si>
     <t>Una importante multinacional de sistemas estima que la cantidad de fallas que cometen sus desarrolladores depende de la cantidad de semanas de experiencia que tienen en sus puestos de trabajo. Se seleccionan al azar 6 trabajadores obteniéndose los siguientes resultados:</t>
   </si>
   <si>
@@ -203,19 +191,209 @@
   </si>
   <si>
     <t>21.8612 (coeficiente autónomo) es el valor de la variable explicada (y, cantidad de errores) cuando la variable explicativa (x, semanas de experiencia) vale cero</t>
+  </si>
+  <si>
+    <t>COEFICIENTE DE DETERMINACIÓN</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>&lt; Sumatoria de los Cuadrados de la Regresión</t>
+  </si>
+  <si>
+    <t>&lt; Sumatoria de los Cuadrados Totales</t>
+  </si>
+  <si>
+    <t>Se usará otra fórmula:</t>
+  </si>
+  <si>
+    <r>
+      <t>(ŷ-ȳ)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(y-ȳ)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∑(ŷ-ȳ)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∑(y-ȳ)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∑(y-ŷ̄)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>b =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ŷ = </t>
+  </si>
+  <si>
+    <t>ŷ(x)</t>
+  </si>
+  <si>
+    <t>§</t>
+  </si>
+  <si>
+    <t>SCE</t>
+  </si>
+  <si>
+    <t>§ &gt; «y» estimado de «x»  (es aplicar la fórmula y = a + bx con el valor de fila de x)</t>
+  </si>
+  <si>
+    <r>
+      <t>(y-ŷ)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Sumatoria Cuadrados Totales &gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -287,6 +465,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -302,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -334,41 +536,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -377,17 +597,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -395,13 +609,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,8 +685,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3038475" cy="2219325"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -973,7 +1228,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1021,6 +1276,301 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>{█(𝑏= (∑▒〖(𝑥_𝑖 𝑦_𝑖 )−(∑▒〖𝑦_𝑖 ∑▒𝑥_𝑖 〗)/𝑛〗)/(∑▒〖𝑥_1^2−〖(∑▒〖𝑥_𝑖)〗〗^2/𝑛〗)@𝑎= 𝑦 ̅−𝑏𝑥 ̅@𝑦 ̂=𝑎+𝑏𝑥)┤</a:t>
+              </a:r>
+              <a:endParaRPr lang="ax-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2246704" cy="941925"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448150AD-ED03-962D-B213-F4BB96A82A3F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5848350" y="7148512"/>
+              <a:ext cx="2246704" cy="941925"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ax-AR" sz="2200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑆</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑥𝑦</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:num>
+                              <m:den>
+                                <m:rad>
+                                  <m:radPr>
+                                    <m:degHide m:val="on"/>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:radPr>
+                                  <m:deg/>
+                                  <m:e>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑆</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑥𝑥</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑆</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑦𝑦</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                  </m:e>
+                                </m:rad>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-AR" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ax-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448150AD-ED03-962D-B213-F4BB96A82A3F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5848350" y="7148512"/>
+              <a:ext cx="2246704" cy="941925"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ax-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2=(𝑆_𝑥𝑦/√(𝑆_𝑥𝑥 𝑆_𝑦𝑦 ))^2</a:t>
               </a:r>
               <a:endParaRPr lang="ax-AR" sz="2200"/>
             </a:p>
@@ -1296,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="H30" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,10 +1857,7 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1321,477 +1868,702 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2"/>
+      <c r="M2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I3" s="12">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I3" s="7">
         <v>6</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="7">
         <v>20</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="8">
         <f>I3*J3</f>
         <v>120</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="8">
         <f>I3^2</f>
         <v>36</v>
       </c>
-      <c r="O3" s="15" t="s">
-        <v>17</v>
+      <c r="M3" s="21">
+        <f>ROUND($J$28+$O$21*I3,4)</f>
+        <v>18.7346</v>
+      </c>
+      <c r="N3" s="21">
+        <f>ROUND((M3-$M$15)^2,4)</f>
+        <v>13.9472</v>
+      </c>
+      <c r="O3" s="21">
+        <f>(J3-$M$15)^2</f>
+        <v>25</v>
+      </c>
+      <c r="P3" s="21">
+        <f>ROUND((J3-M3)^2,4)</f>
+        <v>1.6012</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I4" s="12">
+      <c r="I4" s="7">
         <v>7</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="7">
         <v>19</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="8">
         <f t="shared" ref="K4:K8" si="0">I4*J4</f>
         <v>133</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="8">
         <f t="shared" ref="L4:L8" si="1">I4^2</f>
         <v>49</v>
       </c>
-      <c r="O4" s="13">
+      <c r="M4" s="21">
+        <f t="shared" ref="M4:M8" si="2">ROUND($J$28+$O$21*I4,4)</f>
+        <v>18.2135</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" ref="N4:N8" si="3">ROUND((M4-$M$15)^2,4)</f>
+        <v>10.326599999999999</v>
+      </c>
+      <c r="O4" s="21">
+        <f t="shared" ref="O4:O8" si="4">(J4-$M$15)^2</f>
+        <v>16</v>
+      </c>
+      <c r="P4" s="21">
+        <f t="shared" ref="P4:P8" si="5">ROUND((J4-M4)^2,4)</f>
+        <v>0.61860000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I5" s="7">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7">
+        <v>15</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M5" s="21">
+        <f t="shared" si="2"/>
+        <v>16.650200000000002</v>
+      </c>
+      <c r="N5" s="21">
+        <f t="shared" si="3"/>
+        <v>2.7231999999999998</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="21">
+        <f t="shared" si="5"/>
+        <v>2.7231999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I6" s="7">
+        <v>12</v>
+      </c>
+      <c r="J6" s="7">
+        <v>14</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" si="2"/>
+        <v>15.608000000000001</v>
+      </c>
+      <c r="N6" s="21">
+        <f t="shared" si="3"/>
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="O6" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="21">
+        <f t="shared" si="5"/>
+        <v>2.5857000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I7" s="7">
+        <v>20</v>
+      </c>
+      <c r="J7" s="7">
+        <v>13</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="2"/>
+        <v>11.4392</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" si="3"/>
+        <v>12.6793</v>
+      </c>
+      <c r="O7" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P7" s="21">
+        <f t="shared" si="5"/>
+        <v>2.4361000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I8" s="7">
+        <v>24</v>
+      </c>
+      <c r="J8" s="7">
+        <v>9</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="2"/>
+        <v>9.3547999999999991</v>
+      </c>
+      <c r="N8" s="21">
+        <f t="shared" si="3"/>
+        <v>31.868300000000001</v>
+      </c>
+      <c r="O8" s="21">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="P8" s="21">
+        <f t="shared" si="5"/>
+        <v>0.12590000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="I9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I10" s="8">
+        <f>SUM(I3:I8)</f>
+        <v>79</v>
+      </c>
+      <c r="J10" s="8">
+        <f>SUM(J3:J8)</f>
+        <v>90</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" ref="K10:L10" si="6">SUM(K3:K8)</f>
+        <v>1047</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="6"/>
+        <v>1305</v>
+      </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="21">
+        <f>SUM(N3:N8)</f>
+        <v>71.914299999999997</v>
+      </c>
+      <c r="O10" s="30">
+        <f>SUM(O3:O8)</f>
+        <v>82</v>
+      </c>
+      <c r="P10" s="21">
+        <f>SUM(P3:P8)</f>
+        <v>10.0907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="31">
+        <f>N10+P10</f>
+        <v>82.004999999999995</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="M14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="23"/>
+      <c r="P14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="J15" s="8">
         <f>ROUND(AVERAGE(I3:I8),4)</f>
         <v>13.166700000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I5" s="12">
-        <v>10</v>
-      </c>
-      <c r="J5" s="12">
-        <v>15</v>
-      </c>
-      <c r="K5" s="13">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L5" s="13">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I6" s="12">
-        <v>12</v>
-      </c>
-      <c r="J6" s="12">
-        <v>14</v>
-      </c>
-      <c r="K6" s="13">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="L6" s="13">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I7" s="12">
-        <v>20</v>
-      </c>
-      <c r="J7" s="12">
-        <v>13</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="L7" s="13">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="O7" s="13">
+      <c r="M15" s="8">
         <f>AVERAGE(J3:J8)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I8" s="12">
-        <v>24</v>
-      </c>
-      <c r="J8" s="12">
-        <v>9</v>
-      </c>
-      <c r="K8" s="13">
-        <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="L8" s="13">
-        <f t="shared" si="1"/>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="I9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I10" s="13">
-        <f>SUM(I3:I8)</f>
-        <v>79</v>
-      </c>
-      <c r="J10" s="13">
-        <f>SUM(J3:J8)</f>
-        <v>90</v>
-      </c>
-      <c r="K10" s="13">
-        <f t="shared" ref="K10:L10" si="2">SUM(K3:K8)</f>
-        <v>1047</v>
-      </c>
-      <c r="L10" s="13">
-        <f t="shared" si="2"/>
-        <v>1305</v>
-      </c>
-      <c r="O10" s="13">
+      <c r="P15" s="8">
         <f>COUNT(I3:I8)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I12" s="23" t="str">
-        <f>"-05.5211 mide la variación de la variable explicada (y, cantidad de errores) para un aumento de 1 unidad en la variable explicativa (x, semanas de experiencia)"</f>
-        <v>-05.5211 mide la variación de la variable explicada (y, cantidad de errores) para un aumento de 1 unidad en la variable explicativa (x, semanas de experiencia)</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-    </row>
-    <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="I15" s="8" t="s">
+    <row r="16" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="I17" s="29" t="str">
+        <f>"-05.5211 mide la variación de la variable explicada (y, cantidad de errores que van disminuyendo) para un aumento de 1 unidad en la variable explicativa (x, ante cada semana más de experiencia)"</f>
+        <v>-05.5211 mide la variación de la variable explicada (y, cantidad de errores que van disminuyendo) para un aumento de 1 unidad en la variable explicativa (x, ante cada semana más de experiencia)</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="I21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="K21" s="18"/>
+      <c r="L21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="4">
         <f>K10-J10*I10/6</f>
         <v>-138</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="20">
+        <f>ROUND(M21/M22,4)</f>
+        <v>-0.52110000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8">
+        <v>14</v>
+      </c>
+      <c r="E22" s="8">
         <v>13</v>
       </c>
-      <c r="O15" s="9">
-        <f>ROUND(M15/M16,4)</f>
-        <v>-0.52110000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="3">
+      <c r="F22" s="8">
+        <v>9</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="3">
         <f>ROUND(L10-I10^2/6,4)</f>
         <v>264.83330000000001</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="23" t="s">
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8">
+        <v>7</v>
+      </c>
+      <c r="C24" s="8">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8">
+        <v>12</v>
+      </c>
+      <c r="E24" s="8">
+        <v>20</v>
+      </c>
+      <c r="F24" s="8">
+        <v>24</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="I28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="13">
+        <f>ROUND(M15-O21*J15,4)</f>
+        <v>21.8612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="I30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="14" t="str">
+        <f>J28&amp;" + "&amp;O21&amp;"x"</f>
+        <v>21.8612 + -0.5211x</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I36" s="19"/>
+      <c r="J36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>20</v>
-      </c>
-      <c r="B20" s="13">
-        <v>19</v>
-      </c>
-      <c r="C20" s="13">
-        <v>15</v>
-      </c>
-      <c r="D20" s="13">
-        <v>14</v>
-      </c>
-      <c r="E20" s="13">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13">
-        <v>9</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="I21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="20">
-        <f>ROUND(O7-O15*O4,4)</f>
-        <v>21.8612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>6</v>
-      </c>
-      <c r="B22" s="13">
-        <v>7</v>
-      </c>
-      <c r="C22" s="13">
-        <v>10</v>
-      </c>
-      <c r="D22" s="13">
-        <v>12</v>
-      </c>
-      <c r="E22" s="13">
-        <v>20</v>
-      </c>
-      <c r="F22" s="13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="I24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="21" t="str">
-        <f>J21&amp;" + "&amp;O15&amp;"x"</f>
-        <v>21.8612 + -0.5211x</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I45" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="19" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="L45" s="19" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="M45" s="17">
+        <f>ROUND(O10/P10,4)</f>
+        <v>8.1263000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I46" s="17"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="19"/>
+      <c r="M46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="I17:P19"/>
+    <mergeCell ref="I24:P26"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B31:F32"/>
+    <mergeCell ref="A15:F19"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B26:F28"/>
     <mergeCell ref="B29:F30"/>
-    <mergeCell ref="I12:O14"/>
-    <mergeCell ref="I18:O20"/>
-    <mergeCell ref="A13:F17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B24:F26"/>
-    <mergeCell ref="B27:F28"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O21:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/P&E/Método Mínimos Cuadrados.xlsx
+++ b/P&E/Método Mínimos Cuadrados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA1FB1-9D66-497F-94EE-18B1E8F334D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7168586-C2B2-4950-B90B-CB2721CFAD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>Fórmula &gt;</t>
   </si>
@@ -357,9 +357,6 @@
     </r>
   </si>
   <si>
-    <t>Sumatoria Cuadrados Totales &gt;</t>
-  </si>
-  <si>
     <r>
       <t>R</t>
     </r>
@@ -376,12 +373,251 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1305 - 6 * 13,667</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>1047-6 * 13,667 * 15 =</t>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∑y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1432 - 6 * 15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <t>(SCT)</t>
+  </si>
+  <si>
+    <t>(Numerador de «b»)</t>
+  </si>
+  <si>
+    <t>(Denominador de «b»)</t>
+  </si>
+  <si>
+    <r>
+      <t>(-138/raiz(264,828 * 82))</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>SCE &gt; Sumatoria de Cuadrados del Error</t>
+  </si>
+  <si>
+    <t>Es decir, el 87,70% de la variación está explicado por el modelo (la recta)</t>
+  </si>
+  <si>
+    <t>VARIANZA RESIDUAL</t>
+  </si>
+  <si>
+    <r>
+      <t>Se</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>n - 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +725,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -573,12 +847,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,49 +884,78 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1289,7 +1589,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2246704" cy="941925"/>
@@ -1336,6 +1636,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1554,6 +1855,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-AR" sz="2200" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1573,6 +1875,765 @@
                 <a:t>2=(𝑆_𝑥𝑦/√(𝑆_𝑥𝑥 𝑆_𝑦𝑦 ))^2</a:t>
               </a:r>
               <a:endParaRPr lang="ax-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2678875" cy="819840"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D62D482-1E92-00B4-869C-ABBB2171CB63}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="495300" y="6724650"/>
+              <a:ext cx="2678875" cy="819840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-AR" sz="2200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥𝑦</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:nary>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑛</m:t>
+                    </m:r>
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-AR" sz="2200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D62D482-1E92-00B4-869C-ABBB2171CB63}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="495300" y="6724650"/>
+              <a:ext cx="2678875" cy="819840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥𝑦=∑▒(𝑥𝑦) −𝑛𝑥 ̅𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2374817" cy="819840"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2053BDD-F0FC-461F-B508-5A7D01992DC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="590550" y="7953375"/>
+              <a:ext cx="2374817" cy="819840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-AR" sz="2200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦𝑦</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:nary>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑛</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2053BDD-F0FC-461F-B508-5A7D01992DC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="590550" y="7953375"/>
+              <a:ext cx="2374817" cy="819840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦𝑦=∑▒𝑦^2 −𝑛𝑦 ̅^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2345707" cy="819840"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CuadroTexto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44490CCC-2CE1-4578-A427-8E572A5C6217}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="600075" y="9105900"/>
+              <a:ext cx="2345707" cy="819840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-AR" sz="2200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥𝑥</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:nary>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑛</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CuadroTexto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44490CCC-2CE1-4578-A427-8E572A5C6217}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="600075" y="9105900"/>
+              <a:ext cx="2345707" cy="819840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥𝑥=∑▒𝑥^2 −𝑛𝑥 ̅^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1846,15 +2907,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H30" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="9.28515625" customWidth="1"/>
@@ -1872,296 +2933,326 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>6</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>20</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f>I3*J3</f>
         <v>120</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <f>I3^2</f>
         <v>36</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="7">
+        <f>J3^2</f>
+        <v>400</v>
+      </c>
+      <c r="N3" s="14">
         <f>ROUND($J$28+$O$21*I3,4)</f>
         <v>18.7346</v>
       </c>
-      <c r="N3" s="21">
-        <f>ROUND((M3-$M$15)^2,4)</f>
+      <c r="O3" s="14">
+        <f>ROUND((N3-$P$15)^2,4)</f>
         <v>13.9472</v>
       </c>
-      <c r="O3" s="21">
-        <f>(J3-$M$15)^2</f>
+      <c r="P3" s="14">
+        <f>(J3-$P$15)^2</f>
         <v>25</v>
       </c>
-      <c r="P3" s="21">
-        <f>ROUND((J3-M3)^2,4)</f>
+      <c r="Q3" s="14">
+        <f>ROUND((J3-N3)^2,4)</f>
         <v>1.6012</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>7</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>19</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <f t="shared" ref="K4:K8" si="0">I4*J4</f>
         <v>133</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <f t="shared" ref="L4:L8" si="1">I4^2</f>
         <v>49</v>
       </c>
-      <c r="M4" s="21">
-        <f t="shared" ref="M4:M8" si="2">ROUND($J$28+$O$21*I4,4)</f>
+      <c r="M4" s="7">
+        <f t="shared" ref="M4:M8" si="2">J4^2</f>
+        <v>361</v>
+      </c>
+      <c r="N4" s="14">
+        <f>ROUND($J$28+$O$21*I4,4)</f>
         <v>18.2135</v>
       </c>
-      <c r="N4" s="21">
-        <f t="shared" ref="N4:N8" si="3">ROUND((M4-$M$15)^2,4)</f>
+      <c r="O4" s="14">
+        <f>ROUND((N4-$P$15)^2,4)</f>
         <v>10.326599999999999</v>
       </c>
-      <c r="O4" s="21">
-        <f t="shared" ref="O4:O8" si="4">(J4-$M$15)^2</f>
+      <c r="P4" s="14">
+        <f>(J4-$P$15)^2</f>
         <v>16</v>
       </c>
-      <c r="P4" s="21">
-        <f t="shared" ref="P4:P8" si="5">ROUND((J4-M4)^2,4)</f>
+      <c r="Q4" s="14">
+        <f>ROUND((J4-N4)^2,4)</f>
         <v>0.61860000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>10</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>15</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="7">
         <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="N5" s="14">
+        <f>ROUND($J$28+$O$21*I5,4)</f>
         <v>16.650200000000002</v>
       </c>
-      <c r="N5" s="21">
-        <f t="shared" si="3"/>
+      <c r="O5" s="14">
+        <f>ROUND((N5-$P$15)^2,4)</f>
         <v>2.7231999999999998</v>
       </c>
-      <c r="O5" s="21">
-        <f t="shared" si="4"/>
+      <c r="P5" s="14">
+        <f>(J5-$P$15)^2</f>
         <v>0</v>
       </c>
-      <c r="P5" s="21">
-        <f t="shared" si="5"/>
+      <c r="Q5" s="14">
+        <f>ROUND((J5-N5)^2,4)</f>
         <v>2.7231999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>12</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>14</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="7">
         <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="N6" s="14">
+        <f>ROUND($J$28+$O$21*I6,4)</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="N6" s="21">
-        <f t="shared" si="3"/>
+      <c r="O6" s="14">
+        <f>ROUND((N6-$P$15)^2,4)</f>
         <v>0.36969999999999997</v>
       </c>
-      <c r="O6" s="21">
-        <f t="shared" si="4"/>
+      <c r="P6" s="14">
+        <f>(J6-$P$15)^2</f>
         <v>1</v>
       </c>
-      <c r="P6" s="21">
-        <f t="shared" si="5"/>
+      <c r="Q6" s="14">
+        <f>ROUND((J6-N6)^2,4)</f>
         <v>2.5857000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>20</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>13</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="7">
         <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="N7" s="14">
+        <f>ROUND($J$28+$O$21*I7,4)</f>
         <v>11.4392</v>
       </c>
-      <c r="N7" s="21">
-        <f t="shared" si="3"/>
+      <c r="O7" s="14">
+        <f>ROUND((N7-$P$15)^2,4)</f>
         <v>12.6793</v>
       </c>
-      <c r="O7" s="21">
-        <f t="shared" si="4"/>
+      <c r="P7" s="14">
+        <f>(J7-$P$15)^2</f>
         <v>4</v>
       </c>
-      <c r="P7" s="21">
-        <f t="shared" si="5"/>
+      <c r="Q7" s="14">
+        <f>ROUND((J7-N7)^2,4)</f>
         <v>2.4361000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>24</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>9</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <f t="shared" si="1"/>
         <v>576</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="7">
         <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="N8" s="14">
+        <f>ROUND($J$28+$O$21*I8,4)</f>
         <v>9.3547999999999991</v>
       </c>
-      <c r="N8" s="21">
-        <f t="shared" si="3"/>
+      <c r="O8" s="14">
+        <f>ROUND((N8-$P$15)^2,4)</f>
         <v>31.868300000000001</v>
       </c>
-      <c r="O8" s="21">
-        <f t="shared" si="4"/>
+      <c r="P8" s="14">
+        <f>(J8-$P$15)^2</f>
         <v>36</v>
       </c>
-      <c r="P8" s="21">
-        <f t="shared" si="5"/>
+      <c r="Q8" s="14">
+        <f>ROUND((J8-N8)^2,4)</f>
         <v>0.12590000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f>SUM(I3:I8)</f>
         <v>79</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f>SUM(J3:J8)</f>
         <v>90</v>
       </c>
-      <c r="K10" s="8">
-        <f t="shared" ref="K10:L10" si="6">SUM(K3:K8)</f>
+      <c r="K10" s="7">
+        <f t="shared" ref="K10:L10" si="3">SUM(K3:K8)</f>
         <v>1047</v>
       </c>
-      <c r="L10" s="8">
-        <f t="shared" si="6"/>
+      <c r="L10" s="7">
+        <f t="shared" si="3"/>
         <v>1305</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="21">
-        <f>SUM(N3:N8)</f>
+      <c r="M10" s="7">
+        <f t="shared" ref="M10" si="4">SUM(M3:M8)</f>
+        <v>1432</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="14">
+        <f>SUM(O3:O8)</f>
         <v>71.914299999999997</v>
       </c>
-      <c r="O10" s="30">
-        <f>SUM(O3:O8)</f>
+      <c r="P10" s="19">
+        <f>SUM(P3:P8)</f>
         <v>82</v>
       </c>
-      <c r="P10" s="21">
-        <f>SUM(P3:P8)</f>
+      <c r="Q10" s="14">
+        <f>SUM(Q3:Q8)</f>
         <v>10.0907</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="31">
-        <f>N10+P10</f>
-        <v>82.004999999999995</v>
-      </c>
-      <c r="N11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="O11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2169,330 +3260,329 @@
       <c r="I12" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="M14" s="10" t="s">
+      <c r="N14" s="16"/>
+      <c r="P14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="P14" s="6" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="J15" s="8">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="J15" s="7">
+        <f>COUNT(I3:I8)</f>
+        <v>6</v>
+      </c>
+      <c r="M15" s="7">
         <f>ROUND(AVERAGE(I3:I8),4)</f>
         <v>13.166700000000001</v>
       </c>
-      <c r="M15" s="8">
+      <c r="P15" s="7">
         <f>AVERAGE(J3:J8)</f>
         <v>15</v>
       </c>
-      <c r="P15" s="8">
-        <f>COUNT(I3:I8)</f>
-        <v>6</v>
-      </c>
     </row>
     <row r="16" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="I17" s="29" t="str">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="I17" s="25" t="str">
         <f>"-05.5211 mide la variación de la variable explicada (y, cantidad de errores que van disminuyendo) para un aumento de 1 unidad en la variable explicativa (x, ante cada semana más de experiencia)"</f>
         <v>-05.5211 mide la variación de la variable explicada (y, cantidad de errores que van disminuyendo) para un aumento de 1 unidad en la variable explicativa (x, ante cada semana más de experiencia)</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="I21" s="17" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="I21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19" t="s">
+      <c r="K21" s="26"/>
+      <c r="L21" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <f>K10-J10*I10/6</f>
         <v>-138</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="30">
         <f>ROUND(M21/M22,4)</f>
         <v>-0.52110000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>15</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>14</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>13</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>9</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="24" t="s">
+      <c r="I22" s="21"/>
+      <c r="J22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="3">
+      <c r="K22" s="27"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="2">
         <f>ROUND(L10-I10^2/6,4)</f>
         <v>264.83330000000001</v>
       </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="30"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>6</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>7</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>10</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>12</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>20</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>24</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="I28" s="5" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="I28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J28" s="13">
-        <f>ROUND(M15-O21*J15,4)</f>
+      <c r="J28" s="12">
+        <f>ROUND(P15-O21*M15,4)</f>
         <v>21.8612</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="I30" s="5" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J30" s="14" t="str">
+      <c r="J30" s="13" t="str">
         <f>J28&amp;" + "&amp;O21&amp;"x"</f>
-        <v>21.8612 + -0.5211x</v>
+        <v>21,8612 + -0,5211x</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L35" t="s">
@@ -2500,56 +3590,194 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I36" s="19"/>
-      <c r="J36" s="3" t="s">
+      <c r="I36" s="22"/>
+      <c r="J36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I45" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" s="19" t="str">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="22" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="19" t="str">
+      <c r="L38" s="22" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M38" s="21">
         <f>ROUND(O10/P10,4)</f>
-        <v>8.1263000000000005</v>
-      </c>
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B39" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="15">
+        <f>K10-J15*P15*M15</f>
+        <v>-138.00300000000016</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="22"/>
+      <c r="M39" s="21"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F40" s="39"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F44" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B45" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="15">
+        <f>L10-J15*M15^2</f>
+        <v>264.82806665999988</v>
+      </c>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I46" s="17"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="19"/>
-      <c r="M46" s="17"/>
+      <c r="F46" s="39"/>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="22" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="30">
+        <f>(E39/SQRT(E45*E51))^2</f>
+        <v>0.87699919060292209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I50" s="21"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="30"/>
+    </row>
+    <row r="51" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B51" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="15">
+        <f>M10-J15*P15^2</f>
+        <v>82</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I52" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="35" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="D56" s="38">
+        <v>10.0907</v>
+      </c>
+      <c r="E56" s="35" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="F56" s="30">
+        <f>ROUND(D56/4,4)</f>
+        <v>2.5226999999999999</v>
+      </c>
+      <c r="G56" s="40"/>
+    </row>
+    <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A57" s="35"/>
+      <c r="B57" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="35"/>
+      <c r="D57" s="41" t="str">
+        <f>"6 - 2"</f>
+        <v>6 - 2</v>
+      </c>
+      <c r="E57" s="35"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="M9:M10"/>
+  <mergeCells count="30">
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:M50"/>
+    <mergeCell ref="B31:F32"/>
+    <mergeCell ref="A15:F19"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B26:F28"/>
+    <mergeCell ref="B29:F30"/>
+    <mergeCell ref="N9:N10"/>
     <mergeCell ref="I17:P19"/>
     <mergeCell ref="I24:P26"/>
     <mergeCell ref="I21:I22"/>
@@ -2557,15 +3785,15 @@
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B31:F32"/>
-    <mergeCell ref="A15:F19"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B26:F28"/>
-    <mergeCell ref="B29:F30"/>
     <mergeCell ref="O21:O22"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="I35:I36"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
